--- a/data/Rodrigo FloresT2-2024.xlsx
+++ b/data/Rodrigo FloresT2-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>105.17051846</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -1162,6 +1164,7 @@
         <v>3.112e-05</v>
       </c>
     </row>
+    <row r="44"/>
     <row r="45">
       <c r="D45" s="6" t="inlineStr">
         <is>
@@ -1187,7 +1190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,6 +1203,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1207,6 +1212,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1214,6 +1220,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1622,6 +1629,7 @@
         <v>5.81e-06</v>
       </c>
     </row>
+    <row r="39"/>
     <row r="40">
       <c r="C40" s="6" t="inlineStr">
         <is>
@@ -1647,7 +1655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1660,6 +1668,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1667,6 +1677,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1674,6 +1685,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1770,6 +1782,7 @@
         <v>1e-07</v>
       </c>
     </row>
+    <row r="15"/>
     <row r="16">
       <c r="C16" s="6" t="inlineStr">
         <is>

--- a/data/Rodrigo FloresT2-2024.xlsx
+++ b/data/Rodrigo FloresT2-2024.xlsx
@@ -67,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -88,6 +88,8 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -452,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="C3:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,8 +468,6 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -475,7 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -483,7 +482,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -537,6 +535,8 @@
       <c r="F10" s="11" t="n">
         <v>105.17051846</v>
       </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -1164,7 +1164,6 @@
         <v>3.112e-05</v>
       </c>
     </row>
-    <row r="44"/>
     <row r="45">
       <c r="D45" s="6" t="inlineStr">
         <is>
@@ -1190,7 +1189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="C3:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,8 +1202,6 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1212,7 +1209,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1220,7 +1216,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1629,7 +1624,6 @@
         <v>5.81e-06</v>
       </c>
     </row>
-    <row r="39"/>
     <row r="40">
       <c r="C40" s="6" t="inlineStr">
         <is>
@@ -1655,7 +1649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="C3:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1668,8 +1662,6 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1677,7 +1669,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1685,7 +1676,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1782,7 +1772,6 @@
         <v>1e-07</v>
       </c>
     </row>
-    <row r="15"/>
     <row r="16">
       <c r="C16" s="6" t="inlineStr">
         <is>
